--- a/assets/csv_files/average_marks_file.xlsx
+++ b/assets/csv_files/average_marks_file.xlsx
@@ -145,7 +145,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="9525000" cy="5715000"/>
+    <ext cx="11430000" cy="5715000"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,121 +493,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BSA210</t>
+          <t>BSA408</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>34.13</v>
+        <v>35.42</v>
       </c>
       <c r="C2" t="n">
-        <v>36.39</v>
+        <v>30.84</v>
       </c>
       <c r="D2" t="n">
-        <v>35.26</v>
+        <v>33.13</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BSA211</t>
+          <t>BSA410</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.35</v>
+        <v>34.74</v>
       </c>
       <c r="C3" t="n">
-        <v>38.13</v>
+        <v>31.74</v>
       </c>
       <c r="D3" t="n">
-        <v>36.24</v>
+        <v>33.24</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BSA212</t>
+          <t>BSA412</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30.39</v>
+        <v>35.37</v>
       </c>
       <c r="C4" t="n">
-        <v>27.74</v>
+        <v>40.16</v>
       </c>
       <c r="D4" t="n">
-        <v>29.06</v>
+        <v>37.76</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BSA256</t>
+          <t>BSA460</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.29</v>
+        <v>44.42</v>
       </c>
       <c r="C5" t="n">
-        <v>36.1</v>
+        <v>42.05</v>
       </c>
       <c r="D5" t="n">
-        <v>37.2</v>
+        <v>43.24</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BSA257</t>
+          <t>BSA461</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.13</v>
+        <v>44.58</v>
       </c>
       <c r="C6" t="n">
-        <v>39.48</v>
+        <v>43.37</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3</v>
+        <v>43.97</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BSA258</t>
+          <t>BSA462</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.16</v>
+        <v>43.32</v>
       </c>
       <c r="C7" t="n">
-        <v>41.29</v>
+        <v>42.47</v>
       </c>
       <c r="D7" t="n">
-        <v>41.22</v>
+        <v>42.9</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TMUGE201</t>
+          <t>BSA463</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.03</v>
+        <v>43.26</v>
       </c>
       <c r="C8" t="n">
-        <v>39.19</v>
+        <v>42.74</v>
       </c>
       <c r="D8" t="n">
-        <v>36.61</v>
+        <v>43</v>
       </c>
       <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TMUGE401</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>35.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>43.68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>39.42</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/assets/csv_files/average_marks_file.xlsx
+++ b/assets/csv_files/average_marks_file.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,138 +493,121 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BSA408</t>
+          <t>BSA210</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.42</v>
+        <v>33.94</v>
       </c>
       <c r="C2" t="n">
-        <v>30.84</v>
+        <v>35.52</v>
       </c>
       <c r="D2" t="n">
-        <v>33.13</v>
+        <v>34.73</v>
       </c>
       <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BSA410</t>
+          <t>BSA211</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.74</v>
+        <v>33.82</v>
       </c>
       <c r="C3" t="n">
-        <v>31.74</v>
+        <v>37.42</v>
       </c>
       <c r="D3" t="n">
-        <v>33.24</v>
+        <v>35.62</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BSA412</t>
+          <t>BSA212</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35.37</v>
+        <v>29.82</v>
       </c>
       <c r="C4" t="n">
-        <v>40.16</v>
+        <v>26.76</v>
       </c>
       <c r="D4" t="n">
-        <v>37.76</v>
+        <v>28.29</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BSA460</t>
+          <t>BSA256</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.42</v>
+        <v>37.67</v>
       </c>
       <c r="C5" t="n">
-        <v>42.05</v>
+        <v>35.58</v>
       </c>
       <c r="D5" t="n">
-        <v>43.24</v>
+        <v>36.62</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BSA461</t>
+          <t>BSA257</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.58</v>
+        <v>36.88</v>
       </c>
       <c r="C6" t="n">
-        <v>43.37</v>
+        <v>39.3</v>
       </c>
       <c r="D6" t="n">
-        <v>43.97</v>
+        <v>38.09</v>
       </c>
       <c r="E6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BSA462</t>
+          <t>BSA258</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.32</v>
+        <v>40.82</v>
       </c>
       <c r="C7" t="n">
-        <v>42.47</v>
+        <v>41.06</v>
       </c>
       <c r="D7" t="n">
-        <v>42.9</v>
+        <v>40.94</v>
       </c>
       <c r="E7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BSA463</t>
+          <t>TMUGE201</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.26</v>
+        <v>33.42</v>
       </c>
       <c r="C8" t="n">
-        <v>42.74</v>
+        <v>38</v>
       </c>
       <c r="D8" t="n">
-        <v>43</v>
+        <v>35.71</v>
       </c>
       <c r="E8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>TMUGE401</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>35.16</v>
-      </c>
-      <c r="C9" t="n">
-        <v>43.68</v>
-      </c>
-      <c r="D9" t="n">
-        <v>39.42</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
